--- a/biology/Botanique/Salix_waldsteiniana/Salix_waldsteiniana.xlsx
+++ b/biology/Botanique/Salix_waldsteiniana/Salix_waldsteiniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix waldsteiniana, le saule de Waldstein  est une espèce de saule de la famille des Salicaceae, originaire d'Europe.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix arbuscula var. waldsteiniana (Willd.) K. Koch[1].
-Salix prunifolia Sm.[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix arbuscula var. waldsteiniana (Willd.) K. Koch.
+Salix prunifolia Sm..</t>
         </is>
       </c>
     </row>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chatons mâles.
 			Buisson au jardin botanique de Reykjavik.
 			Feuillage brillant.
-La floraison a lieu en mai-juin. L'arbuste a une taille de 30 à 150 cm[3]. À l'automne, son feuillage doré le rend très décoratif.
-Salix waldsteiniana pousse en Italie, Autriche, Allemagne, Suisse, la péninsule balkanique, les Alpes (1 500 à 2 500  m d'altitude) et le Grand Balkan[4],[5].
+La floraison a lieu en mai-juin. L'arbuste a une taille de 30 à 150 cm. À l'automne, son feuillage doré le rend très décoratif.
+Salix waldsteiniana pousse en Italie, Autriche, Allemagne, Suisse, la péninsule balkanique, les Alpes (1 500 à 2 500  m d'altitude) et le Grand Balkan,.
 </t>
         </is>
       </c>
